--- a/Functional Requirements/Tables/Power Distribution Board Component Calculator.xlsx
+++ b/Functional Requirements/Tables/Power Distribution Board Component Calculator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repository\Dionysus-PowerDistributionBoard\Functional Requirements\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F8693A-F917-4AE1-B3FD-4546B364A616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C23B0E-1E03-403C-BECA-867077472599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E9C1F6C7-3E8A-4EA6-BA7D-B09237406850}"/>
+    <workbookView xWindow="25995" yWindow="870" windowWidth="25050" windowHeight="15375" activeTab="1" xr2:uid="{E9C1F6C7-3E8A-4EA6-BA7D-B09237406850}"/>
   </bookViews>
   <sheets>
     <sheet name="Total Power Requirements" sheetId="13" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="46">
   <si>
     <t>Input Voltage [V]</t>
   </si>
@@ -90,12 +90,6 @@
     <t>Ambient Environment Sensor</t>
   </si>
   <si>
-    <t>GPIO Headers</t>
-  </si>
-  <si>
-    <t>NCS Pump Activation</t>
-  </si>
-  <si>
     <t>Peristaltic Pump Logic</t>
   </si>
   <si>
@@ -169,6 +163,9 @@
   </si>
   <si>
     <t>Table #: Bus Power Limits</t>
+  </si>
+  <si>
+    <t>GPIO Header</t>
   </si>
 </sst>
 </file>
@@ -702,7 +699,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
@@ -809,20 +806,18 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1139,27 +1134,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AA6872B-62E1-4FA2-9C43-45964BCE27F7}">
-  <dimension ref="A1:R24"/>
+  <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="25"/>
       <c r="C2" s="26" t="s">
         <v>0</v>
@@ -1183,22 +1178,22 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C3" s="10">
         <v>12</v>
       </c>
       <c r="D3" s="11">
         <f>E3/C3</f>
-        <v>0.28947368421052638</v>
+        <v>1.1578947368421055</v>
       </c>
       <c r="E3" s="22">
         <f>I3/F3</f>
-        <v>3.4736842105263164</v>
-      </c>
-      <c r="F3" s="45">
+        <v>13.894736842105265</v>
+      </c>
+      <c r="F3" s="44">
         <v>0.95</v>
       </c>
       <c r="G3" s="10">
@@ -1207,60 +1202,60 @@
       </c>
       <c r="H3" s="11">
         <f>SUM('Accessory Power Bus - 3.3V'!G3:G6)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I3" s="24">
         <f>SUM('Accessory Power Bus - 3.3V'!H3:H6)</f>
-        <v>3.3000000000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+        <v>13.200000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C4" s="10">
         <v>12</v>
       </c>
       <c r="D4" s="11">
         <f t="shared" ref="D4:D10" si="0">E4/C4</f>
-        <v>1.0442763157894737</v>
+        <v>0.17585526315789476</v>
       </c>
       <c r="E4" s="22">
         <f t="shared" ref="E4:E10" si="1">I4/F4</f>
-        <v>12.531315789473684</v>
-      </c>
-      <c r="F4" s="45">
+        <v>2.1102631578947371</v>
+      </c>
+      <c r="F4" s="44">
         <v>0.95</v>
       </c>
       <c r="G4" s="10">
         <f>AVERAGE('Accessory Power Bus - 3.3V'!D11:D14)</f>
-        <v>3.3</v>
+        <v>3.2999999999999994</v>
       </c>
       <c r="H4" s="11">
         <f>SUM('Accessory Power Bus - 3.3V'!G11:G14)</f>
-        <v>3.6074999999999999</v>
+        <v>0.60749999999999993</v>
       </c>
       <c r="I4" s="24">
         <f>SUM('Accessory Power Bus - 3.3V'!H11:H14)</f>
-        <v>11.90475</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+        <v>2.00475</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C5" s="10">
         <v>12</v>
       </c>
       <c r="D5" s="11">
         <f t="shared" si="0"/>
-        <v>0.39802631578947367</v>
+        <v>0.39223684210526316</v>
       </c>
       <c r="E5" s="22">
         <f t="shared" si="1"/>
-        <v>4.7763157894736841</v>
-      </c>
-      <c r="F5" s="45">
+        <v>4.7068421052631582</v>
+      </c>
+      <c r="F5" s="44">
         <v>0.95</v>
       </c>
       <c r="G5" s="10">
@@ -1269,16 +1264,16 @@
       </c>
       <c r="H5" s="11">
         <f>SUM('Accessory Power Bus - 3.3V'!G19:G23)</f>
-        <v>1.375</v>
+        <v>1.355</v>
       </c>
       <c r="I5" s="24">
         <f>SUM('Accessory Power Bus - 3.3V'!H19:H23)</f>
-        <v>4.5374999999999996</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+        <v>4.4714999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C6" s="10">
         <v>12</v>
@@ -1291,7 +1286,7 @@
         <f t="shared" si="1"/>
         <v>9.4736842105263168</v>
       </c>
-      <c r="F6" s="45">
+      <c r="F6" s="44">
         <v>0.95</v>
       </c>
       <c r="G6" s="10">
@@ -1307,9 +1302,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C7" s="10">
         <v>12</v>
@@ -1322,7 +1317,7 @@
         <f t="shared" si="1"/>
         <v>12.631578947368421</v>
       </c>
-      <c r="F7" s="45">
+      <c r="F7" s="44">
         <v>0.95</v>
       </c>
       <c r="G7" s="10">
@@ -1338,9 +1333,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C8" s="10">
         <v>12</v>
@@ -1353,7 +1348,7 @@
         <f t="shared" si="1"/>
         <v>12.631578947368421</v>
       </c>
-      <c r="F8" s="45">
+      <c r="F8" s="44">
         <v>0.95</v>
       </c>
       <c r="G8" s="10">
@@ -1369,9 +1364,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C9" s="10">
         <v>12</v>
@@ -1384,7 +1379,7 @@
         <f t="shared" si="1"/>
         <v>12.631578947368421</v>
       </c>
-      <c r="F9" s="45">
+      <c r="F9" s="44">
         <v>0.95</v>
       </c>
       <c r="G9" s="10">
@@ -1400,9 +1395,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C10" s="35">
         <v>12</v>
@@ -1415,7 +1410,7 @@
         <f t="shared" si="1"/>
         <v>25.263157894736846</v>
       </c>
-      <c r="F10" s="49">
+      <c r="F10" s="46">
         <v>0.95</v>
       </c>
       <c r="G10" s="35">
@@ -1431,45 +1426,44 @@
         <v>24.000000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="47"/>
-      <c r="B11" s="50" t="s">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B11" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="48">
+      <c r="C11" s="45">
         <f>AVERAGE(C3:C10)</f>
         <v>12</v>
       </c>
-      <c r="D11" s="46">
+      <c r="D11" s="45">
         <f>SUM(D3:D10)</f>
-        <v>7.7844078947368418</v>
-      </c>
-      <c r="E11" s="46">
+        <v>7.7786184210526317</v>
+      </c>
+      <c r="E11" s="45">
         <f>SUM(E3:E10)</f>
-        <v>93.412894736842119</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B12" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="44"/>
-      <c r="P12" s="44"/>
-      <c r="Q12" s="44"/>
-      <c r="R12" s="44"/>
-    </row>
-    <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>93.343421052631598</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B12" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="48"/>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="48"/>
+      <c r="R12" s="48"/>
+    </row>
+    <row r="13" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="25"/>
       <c r="C14" s="26" t="s">
         <v>0</v>
@@ -1493,9 +1487,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C15" s="10">
         <v>12</v>
@@ -1508,11 +1502,11 @@
         <f>I15/F15</f>
         <v>0</v>
       </c>
-      <c r="F15" s="45">
+      <c r="F15" s="44">
         <v>0.95</v>
       </c>
       <c r="G15" s="10">
-        <f>G3</f>
+        <f t="shared" ref="G15:G22" si="2">G3</f>
         <v>3.3</v>
       </c>
       <c r="H15" s="11"/>
@@ -1521,230 +1515,230 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C16" s="10">
         <v>12</v>
       </c>
       <c r="D16" s="11">
-        <f t="shared" ref="D16:D22" si="2">E16/C16</f>
+        <f t="shared" ref="D16:D22" si="3">E16/C16</f>
         <v>0</v>
       </c>
       <c r="E16" s="22">
-        <f t="shared" ref="E16:E22" si="3">I16/F16</f>
-        <v>0</v>
-      </c>
-      <c r="F16" s="45">
+        <f t="shared" ref="E16:E22" si="4">I16/F16</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="44">
         <v>0.95</v>
       </c>
       <c r="G16" s="10">
-        <f>G4</f>
-        <v>3.3</v>
+        <f t="shared" si="2"/>
+        <v>3.2999999999999994</v>
       </c>
       <c r="H16" s="12"/>
       <c r="I16" s="24">
-        <f t="shared" ref="I16:I22" si="4">G16*H16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+        <f t="shared" ref="I16:I22" si="5">G16*H16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C17" s="10">
         <v>12</v>
       </c>
       <c r="D17" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="44">
+        <v>0.95</v>
+      </c>
+      <c r="G17" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E17" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F17" s="45">
-        <v>0.95</v>
-      </c>
-      <c r="G17" s="10">
-        <f>G5</f>
         <v>3.3</v>
       </c>
       <c r="H17" s="12"/>
       <c r="I17" s="24">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="10">
+        <v>12</v>
+      </c>
+      <c r="D18" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="10">
-        <v>12</v>
-      </c>
-      <c r="D18" s="11">
+      <c r="F18" s="44">
+        <v>0.95</v>
+      </c>
+      <c r="G18" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E18" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F18" s="45">
-        <v>0.95</v>
-      </c>
-      <c r="G18" s="10">
-        <f>G6</f>
         <v>9</v>
       </c>
       <c r="H18" s="12"/>
       <c r="I18" s="24">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="10">
+        <v>12</v>
+      </c>
+      <c r="D19" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="10">
-        <v>12</v>
-      </c>
-      <c r="D19" s="11">
+      <c r="F19" s="44">
+        <v>0.95</v>
+      </c>
+      <c r="G19" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E19" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F19" s="45">
-        <v>0.95</v>
-      </c>
-      <c r="G19" s="10">
-        <f>G7</f>
         <v>12</v>
       </c>
       <c r="H19" s="12"/>
       <c r="I19" s="24">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="10">
+        <v>12</v>
+      </c>
+      <c r="D20" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="10">
-        <v>12</v>
-      </c>
-      <c r="D20" s="11">
+      <c r="F20" s="44">
+        <v>0.95</v>
+      </c>
+      <c r="G20" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E20" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F20" s="45">
-        <v>0.95</v>
-      </c>
-      <c r="G20" s="10">
-        <f>G8</f>
         <v>12</v>
       </c>
       <c r="H20" s="12"/>
       <c r="I20" s="24">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="10">
+        <v>12</v>
+      </c>
+      <c r="D21" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="10">
-        <v>12</v>
-      </c>
-      <c r="D21" s="11">
+      <c r="F21" s="44">
+        <v>0.95</v>
+      </c>
+      <c r="G21" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E21" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F21" s="45">
-        <v>0.95</v>
-      </c>
-      <c r="G21" s="10">
-        <f>G9</f>
         <v>12</v>
       </c>
       <c r="H21" s="12"/>
       <c r="I21" s="24">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="35">
+        <v>12</v>
+      </c>
+      <c r="D22" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="37">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="35">
-        <v>12</v>
-      </c>
-      <c r="D22" s="36">
+      <c r="F22" s="46">
+        <v>0.95</v>
+      </c>
+      <c r="G22" s="35">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E22" s="37">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F22" s="49">
-        <v>0.95</v>
-      </c>
-      <c r="G22" s="35">
-        <f>G10</f>
         <v>12</v>
       </c>
       <c r="H22" s="43"/>
       <c r="I22" s="39">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="50" t="s">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="48">
+      <c r="C23" s="45">
         <f>AVERAGE(C15:C22)</f>
         <v>12</v>
       </c>
-      <c r="D23" s="46">
+      <c r="D23" s="45">
         <f>SUM(D15:D22)</f>
         <v>0</v>
       </c>
-      <c r="E23" s="46">
+      <c r="E23" s="45">
         <f>SUM(E15:E22)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1760,32 +1754,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E348F2C5-72E0-479C-A1CC-143F8CADF577}">
   <dimension ref="B1:H33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="27.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="18" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="33" t="s">
         <v>9</v>
       </c>
@@ -1808,12 +1802,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="C3" s="3">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D3" s="10">
         <v>3.3</v>
@@ -1822,28 +1816,45 @@
         <v>0.2</v>
       </c>
       <c r="F3" s="22">
-        <f t="shared" ref="F3" si="0">D3*E3</f>
+        <f t="shared" ref="F3:F4" si="0">D3*E3</f>
         <v>0.66</v>
       </c>
       <c r="G3" s="23">
         <f>E3*C3</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H3" s="24">
         <f>F3*C3</f>
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="4">
+        <v>5</v>
+      </c>
+      <c r="D4" s="14">
+        <v>3.3</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="F4" s="22">
+        <f t="shared" si="0"/>
+        <v>0.66</v>
+      </c>
+      <c r="G4" s="23">
+        <f>E4*C4</f>
+        <v>1</v>
+      </c>
+      <c r="H4" s="24">
+        <f>F4*C4</f>
         <v>3.3000000000000003</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="7"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="13"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="7"/>
       <c r="C5" s="4"/>
       <c r="D5" s="14"/>
@@ -1852,7 +1863,7 @@
       <c r="G5" s="20"/>
       <c r="H5" s="13"/>
     </row>
-    <row r="6" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="8"/>
       <c r="C6" s="2"/>
       <c r="D6" s="15"/>
@@ -1861,32 +1872,32 @@
       <c r="G6" s="21"/>
       <c r="H6" s="17"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D7" s="40"/>
       <c r="E7" s="40"/>
       <c r="F7" s="40"/>
       <c r="G7" s="41">
         <f>SUM(G3:G6)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H7" s="41">
         <f>SUM(H3:H6)</f>
-        <v>3.3000000000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-    </row>
-    <row r="9" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>13.200000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+    </row>
+    <row r="9" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="33" t="s">
         <v>9</v>
       </c>
@@ -1909,7 +1920,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
@@ -1932,7 +1943,7 @@
         <v>2.4750000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
         <v>18</v>
       </c>
@@ -1955,7 +1966,7 @@
         <v>1.6500000000000001</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
         <v>19</v>
       </c>
@@ -1978,56 +1989,42 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="9">
-        <v>15</v>
-      </c>
-      <c r="D14" s="35">
-        <v>3.3</v>
-      </c>
-      <c r="E14" s="36">
-        <v>0.2</v>
-      </c>
-      <c r="F14" s="37">
-        <v>0.66</v>
-      </c>
-      <c r="G14" s="38">
-        <v>3</v>
-      </c>
-      <c r="H14" s="39">
-        <v>9.9</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="34"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="39"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C15" s="31"/>
       <c r="D15" s="32"/>
       <c r="E15" s="32"/>
       <c r="F15" s="32"/>
       <c r="G15" s="41">
         <f>SUM(G11:G14)</f>
-        <v>3.6074999999999999</v>
+        <v>0.60749999999999993</v>
       </c>
       <c r="H15" s="41">
         <f>SUM(H11:H14)</f>
-        <v>11.90475</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-    </row>
-    <row r="17" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="18" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>2.00475</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+    </row>
+    <row r="17" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="33" t="s">
         <v>9</v>
       </c>
@@ -2050,9 +2047,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C19" s="3">
         <v>5</v>
@@ -2077,62 +2074,62 @@
         <v>0.20625000000000002</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C20" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D20" s="10">
         <v>3.3</v>
       </c>
       <c r="E20" s="11">
-        <v>0.02</v>
+        <f>2.5/1000</f>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="F20" s="22">
         <f>D20*E20</f>
-        <v>6.6000000000000003E-2</v>
+        <v>8.2500000000000004E-3</v>
       </c>
       <c r="G20" s="23">
         <f>E20*C20</f>
-        <v>0.02</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="H20" s="24">
         <f>F20*C20</f>
-        <v>6.6000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+        <v>4.1250000000000002E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C21" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" s="10">
         <v>3.3</v>
       </c>
       <c r="E21" s="11">
-        <f>2.5/1000</f>
-        <v>2.5000000000000001E-3</v>
+        <v>0.2</v>
       </c>
       <c r="F21" s="22">
         <f>D21*E21</f>
-        <v>8.2500000000000004E-3</v>
+        <v>0.66</v>
       </c>
       <c r="G21" s="23">
         <f>E21*C21</f>
-        <v>1.2500000000000001E-2</v>
+        <v>0.8</v>
       </c>
       <c r="H21" s="24">
         <f>F21*C21</f>
-        <v>4.1250000000000002E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C22" s="3">
         <v>4</v>
@@ -2141,74 +2138,66 @@
         <v>3.3</v>
       </c>
       <c r="E22" s="11">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="F22" s="22">
         <f>D22*E22</f>
-        <v>0.66</v>
+        <v>0.39599999999999996</v>
       </c>
       <c r="G22" s="23">
         <f>E22*C22</f>
-        <v>0.8</v>
+        <v>0.48</v>
       </c>
       <c r="H22" s="24">
         <f>F22*C22</f>
-        <v>2.64</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="9">
-        <v>4</v>
-      </c>
-      <c r="D23" s="35">
-        <v>3.3</v>
-      </c>
-      <c r="E23" s="36">
-        <v>0.12</v>
-      </c>
+        <v>1.5839999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="42"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="36"/>
       <c r="F23" s="37">
         <f>D23*E23</f>
-        <v>0.39599999999999996</v>
+        <v>0</v>
       </c>
       <c r="G23" s="38">
         <f>E23*C23</f>
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="H23" s="39">
         <f>F23*C23</f>
-        <v>1.5839999999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C24" s="31"/>
       <c r="D24" s="31"/>
       <c r="E24" s="31"/>
       <c r="F24" s="31"/>
       <c r="G24" s="41">
         <f>SUM(G20:G23)</f>
-        <v>1.3125</v>
+        <v>1.2925</v>
       </c>
       <c r="H24" s="41">
         <f>SUM(H20:H23)</f>
-        <v>4.3312499999999998</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-    </row>
-    <row r="26" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="27" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>4.26525</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+    </row>
+    <row r="26" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="33" t="s">
         <v>9</v>
       </c>
@@ -2231,9 +2220,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="10">
@@ -2252,9 +2241,9 @@
         <v>2.4750000000000001E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="10">
@@ -2273,9 +2262,9 @@
         <v>1.6500000000000001</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="10">
@@ -2294,7 +2283,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="31" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="34"/>
       <c r="C31" s="9"/>
       <c r="D31" s="35"/>
@@ -2303,7 +2292,7 @@
       <c r="G31" s="38"/>
       <c r="H31" s="39"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C32" s="31"/>
       <c r="D32" s="32"/>
       <c r="E32" s="32"/>
@@ -2317,16 +2306,16 @@
         <v>2.00475</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B33" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" s="44"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="44"/>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2349,28 +2338,28 @@
       <selection activeCell="J2" sqref="J2:Q7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="27.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="18" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="33" t="s">
         <v>9</v>
       </c>
@@ -2393,9 +2382,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
@@ -2416,7 +2405,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="7"/>
       <c r="C4" s="4"/>
       <c r="D4" s="14"/>
@@ -2425,7 +2414,7 @@
       <c r="G4" s="20"/>
       <c r="H4" s="13"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="7"/>
       <c r="C5" s="4"/>
       <c r="D5" s="14"/>
@@ -2434,7 +2423,7 @@
       <c r="G5" s="20"/>
       <c r="H5" s="13"/>
     </row>
-    <row r="6" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="8"/>
       <c r="C6" s="2"/>
       <c r="D6" s="15"/>
@@ -2443,7 +2432,7 @@
       <c r="G6" s="21"/>
       <c r="H6" s="17"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D7" s="40"/>
       <c r="E7" s="40"/>
       <c r="F7" s="40"/>
@@ -2456,19 +2445,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-    </row>
-    <row r="9" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+    </row>
+    <row r="9" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="33" t="s">
         <v>9</v>
       </c>
@@ -2491,7 +2480,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="3"/>
       <c r="D11" s="10"/>
@@ -2500,7 +2489,7 @@
       <c r="G11" s="23"/>
       <c r="H11" s="24"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="6"/>
       <c r="C12" s="3"/>
       <c r="D12" s="10"/>
@@ -2509,7 +2498,7 @@
       <c r="G12" s="23"/>
       <c r="H12" s="24"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="6"/>
       <c r="C13" s="3"/>
       <c r="D13" s="10"/>
@@ -2518,7 +2507,7 @@
       <c r="G13" s="23"/>
       <c r="H13" s="24"/>
     </row>
-    <row r="14" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="34"/>
       <c r="C14" s="9"/>
       <c r="D14" s="35"/>
@@ -2527,7 +2516,7 @@
       <c r="G14" s="38"/>
       <c r="H14" s="39"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C15" s="31"/>
       <c r="D15" s="32"/>
       <c r="E15" s="32"/>
@@ -2541,19 +2530,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-    </row>
-    <row r="17" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="18" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+    </row>
+    <row r="17" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="33" t="s">
         <v>9</v>
       </c>
@@ -2576,7 +2565,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="3"/>
       <c r="D19" s="10"/>
@@ -2585,7 +2574,7 @@
       <c r="G19" s="23"/>
       <c r="H19" s="24"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="3"/>
       <c r="D20" s="10"/>
@@ -2594,7 +2583,7 @@
       <c r="G20" s="23"/>
       <c r="H20" s="24"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="3"/>
       <c r="D21" s="10"/>
@@ -2603,7 +2592,7 @@
       <c r="G21" s="23"/>
       <c r="H21" s="24"/>
     </row>
-    <row r="22" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="42"/>
       <c r="C22" s="9"/>
       <c r="D22" s="35"/>
@@ -2612,7 +2601,7 @@
       <c r="G22" s="38"/>
       <c r="H22" s="39"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C23" s="31"/>
       <c r="D23" s="31"/>
       <c r="E23" s="31"/>
@@ -2626,16 +2615,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2656,28 +2645,28 @@
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="27.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="18" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="33" t="s">
         <v>9</v>
       </c>
@@ -2700,9 +2689,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
@@ -2723,7 +2712,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="7"/>
       <c r="C4" s="4"/>
       <c r="D4" s="14"/>
@@ -2732,7 +2721,7 @@
       <c r="G4" s="20"/>
       <c r="H4" s="13"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="7"/>
       <c r="C5" s="4"/>
       <c r="D5" s="14"/>
@@ -2741,7 +2730,7 @@
       <c r="G5" s="20"/>
       <c r="H5" s="13"/>
     </row>
-    <row r="6" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="8"/>
       <c r="C6" s="2"/>
       <c r="D6" s="15"/>
@@ -2750,7 +2739,7 @@
       <c r="G6" s="21"/>
       <c r="H6" s="17"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D7" s="40"/>
       <c r="E7" s="40"/>
       <c r="F7" s="40"/>
@@ -2763,19 +2752,19 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-    </row>
-    <row r="9" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+    </row>
+    <row r="9" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="33" t="s">
         <v>9</v>
       </c>
@@ -2798,9 +2787,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C11" s="3">
         <v>1</v>
@@ -2821,7 +2810,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="6"/>
       <c r="C12" s="3"/>
       <c r="D12" s="10"/>
@@ -2830,7 +2819,7 @@
       <c r="G12" s="23"/>
       <c r="H12" s="24"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="6"/>
       <c r="C13" s="3"/>
       <c r="D13" s="10"/>
@@ -2839,7 +2828,7 @@
       <c r="G13" s="23"/>
       <c r="H13" s="24"/>
     </row>
-    <row r="14" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="34"/>
       <c r="C14" s="9"/>
       <c r="D14" s="35"/>
@@ -2848,7 +2837,7 @@
       <c r="G14" s="38"/>
       <c r="H14" s="39"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C15" s="31"/>
       <c r="D15" s="32"/>
       <c r="E15" s="32"/>
@@ -2862,19 +2851,19 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-    </row>
-    <row r="17" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="18" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+    </row>
+    <row r="17" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="33" t="s">
         <v>9</v>
       </c>
@@ -2897,9 +2886,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C19" s="3">
         <v>1</v>
@@ -2920,7 +2909,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="3"/>
       <c r="D20" s="10"/>
@@ -2929,7 +2918,7 @@
       <c r="G20" s="23"/>
       <c r="H20" s="24"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="3"/>
       <c r="D21" s="10"/>
@@ -2938,7 +2927,7 @@
       <c r="G21" s="23"/>
       <c r="H21" s="24"/>
     </row>
-    <row r="22" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="42"/>
       <c r="C22" s="9"/>
       <c r="D22" s="35"/>
@@ -2947,7 +2936,7 @@
       <c r="G22" s="38"/>
       <c r="H22" s="39"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C23" s="31"/>
       <c r="D23" s="31"/>
       <c r="E23" s="31"/>
@@ -2961,19 +2950,19 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-    </row>
-    <row r="25" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+    </row>
+    <row r="25" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="33" t="s">
         <v>9</v>
       </c>
@@ -2996,9 +2985,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C27" s="3">
         <v>5</v>
@@ -3019,7 +3008,7 @@
         <v>24.000000000000004</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="3"/>
       <c r="D28" s="10"/>
@@ -3028,7 +3017,7 @@
       <c r="G28" s="23"/>
       <c r="H28" s="24"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="3"/>
       <c r="D29" s="10"/>
@@ -3037,7 +3026,7 @@
       <c r="G29" s="23"/>
       <c r="H29" s="24"/>
     </row>
-    <row r="30" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="42"/>
       <c r="C30" s="9"/>
       <c r="D30" s="35"/>
@@ -3046,7 +3035,7 @@
       <c r="G30" s="38"/>
       <c r="H30" s="39"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C31" s="31"/>
       <c r="D31" s="31"/>
       <c r="E31" s="31"/>
@@ -3060,16 +3049,16 @@
         <v>24.000000000000004</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B32" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="4">
